--- a/EnsembleClassificationAAPL_data_with_prediction.xlsx
+++ b/EnsembleClassificationAAPL_data_with_prediction.xlsx
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>0</v>
